--- a/data_xlsx/基础金价_中国黄金.xlsx
+++ b/data_xlsx/基础金价_中国黄金.xlsx
@@ -23578,8 +23578,168 @@
         <v>450.5</v>
       </c>
     </row>
+    <row r="2938">
+      <c r="A2938" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B2938" s="2" t="n">
+        <v>451.2</v>
+      </c>
+    </row>
     <row r="2939">
-      <c r="A2939" s="3" t="inlineStr">
+      <c r="A2939" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B2939" s="2" t="n">
+        <v>454.5</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B2940" s="2" t="n">
+        <v>454.1</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" s="1" t="n">
+        <v>45123.0</v>
+      </c>
+      <c r="B2941" s="2" t="n">
+        <v>453.0</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B2942" s="2" t="n">
+        <v>453.6</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B2943" s="2" t="n">
+        <v>454.8</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B2944" s="2" t="n">
+        <v>461.0</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B2945" s="2" t="n">
+        <v>461.7</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B2946" s="2" t="n">
+        <v>458.2</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" s="1" t="n">
+        <v>45130.0</v>
+      </c>
+      <c r="B2947" s="2" t="n">
+        <v>457.0</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B2948" s="2" t="n">
+        <v>457.3</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B2949" s="2" t="n">
+        <v>456.4</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B2950" s="2" t="n">
+        <v>457.4</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B2951" s="2" t="n">
+        <v>458.6</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B2952" s="2" t="n">
+        <v>455.3</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" s="1" t="n">
+        <v>45137.0</v>
+      </c>
+      <c r="B2953" s="2" t="n">
+        <v>456.0</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B2954" s="2" t="n">
+        <v>455.4</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B2955" s="2" t="n">
+        <v>457.2</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B2956" s="2" t="n">
+        <v>456.0</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B2957" s="2" t="n">
+        <v>454.6</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
